--- a/agent/IOS马甲包出包表913.xlsx
+++ b/agent/IOS马甲包出包表913.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,14 +87,6 @@
   </si>
   <si>
     <t>聚量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出包情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -207,6 +199,50 @@
   </si>
   <si>
     <t>修仙侠隐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古剑苍穹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太古仙盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天剑侠客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天之剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑雨江湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咚信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诛仙青云录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍穹传奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙侠轩辕世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出包时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,8 +280,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,8 +338,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -318,11 +374,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -356,6 +449,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -657,16 +776,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -677,16 +797,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>13</v>
@@ -708,104 +828,120 @@
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="17">
         <v>1</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="6"/>
+      <c r="F2" s="6">
+        <v>20180917</v>
+      </c>
+      <c r="G2" s="6">
+        <v>20180919</v>
+      </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="17">
         <v>2</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="6">
+        <v>20180917</v>
+      </c>
+      <c r="G3" s="26"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="17">
         <v>3</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="6">
+        <v>20180917</v>
+      </c>
+      <c r="G4" s="26"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="17">
         <v>4</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="6">
+        <v>20180917</v>
+      </c>
+      <c r="G5" s="26"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="21"/>
+      <c r="B7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="16">
+        <v>11</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="1"/>
@@ -814,25 +950,33 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="D9" s="17">
+        <v>5</v>
+      </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="6">
+        <v>20180920</v>
+      </c>
+      <c r="G9" s="6">
+        <v>20180921</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4">
+        <v>17</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -840,12 +984,14 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D11" s="4">
+        <v>15</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -853,12 +999,14 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="D12" s="4">
+        <v>15</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -866,12 +1014,14 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4">
+        <v>15</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -879,12 +1029,14 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="D14" s="4">
+        <v>14</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -892,12 +1044,14 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="D15" s="4">
+        <v>14</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -905,12 +1059,14 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="D16" s="4">
+        <v>14</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -918,12 +1074,14 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="4"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4">
+        <v>14</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -931,12 +1089,14 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="D18" s="4">
+        <v>16</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -944,12 +1104,14 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D19" s="4">
+        <v>16</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -957,12 +1119,14 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="D20" s="4">
+        <v>16</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -970,12 +1134,14 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="D21" s="4">
+        <v>16</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -983,12 +1149,14 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="4"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="4">
+        <v>16</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -996,12 +1164,14 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="D23" s="4">
+        <v>18</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1009,13 +1179,13 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="14" t="s">
-        <v>42</v>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="D24" s="4">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="1"/>
@@ -1024,10 +1194,10 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D25" s="4">
         <v>8</v>
@@ -1039,15 +1209,13 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>45</v>
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="D26" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="1"/>
@@ -1056,13 +1224,15 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="C27" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D27" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="1"/>
@@ -1071,13 +1241,13 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D28" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="1"/>
@@ -1086,15 +1256,13 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>21</v>
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="D29" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="1"/>
@@ -1103,15 +1271,15 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>20</v>
+      <c r="A30" s="23"/>
+      <c r="B30" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D30" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="1"/>
@@ -1120,10 +1288,14 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="4"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="4">
+        <v>7</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1131,10 +1303,14 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="4"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="4">
+        <v>7</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1142,55 +1318,79 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="4">
+        <v>7</v>
+      </c>
+      <c r="E33" s="4"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="4">
+        <v>7</v>
+      </c>
+      <c r="E34" s="4"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="4">
+        <v>6</v>
+      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="4">
+        <v>13</v>
+      </c>
+      <c r="E36" s="4"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="4">
+        <v>13</v>
+      </c>
+      <c r="E37" s="4"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1262,10 +1462,70 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A8:A37"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B8:B26"/>
+    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
